--- a/files/Graph-1403-1.xlsx
+++ b/files/Graph-1403-1.xlsx
@@ -207,754 +207,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="214">
-    <dxf>
-      <font>
-        <name val="B Nazain"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="B Nazain"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="B Nazain"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="B Nazain"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="B Nazain"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="B Nazain"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="B Nazain"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="B Nazanin"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="B Nazanin"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="B Nazanin"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="B Nazanin"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="B Nazanin"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="B Nazanin"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="B Nazanin"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="18"/>
-      </font>
-    </dxf>
+  <dxfs count="107">
     <dxf>
       <font>
         <sz val="18"/>
@@ -2829,15 +2082,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
+      <xdr:colOff>27215</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>559595</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>345281</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3069,381 +2322,381 @@
     <dataField name=" مبلغ-تومان" fld="1" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="107">
-    <format dxfId="213">
+    <format dxfId="106">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="212">
+    <format dxfId="105">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="211">
+    <format dxfId="104">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="210">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="209">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="208">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="207">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="206">
+    <format dxfId="99">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="205">
+    <format dxfId="98">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="204">
+    <format dxfId="97">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="203">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="202">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="201">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="199">
+    <format dxfId="92">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="198">
+    <format dxfId="91">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="197">
+    <format dxfId="90">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="196">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="195">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="194">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="193">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="192">
+    <format dxfId="85">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="191">
+    <format dxfId="84">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="190">
+    <format dxfId="83">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="189">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="188">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="187">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="185">
+    <format dxfId="78">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="184">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="182">
+    <format dxfId="75">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="179">
+    <format dxfId="72">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="178">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="177">
+    <format dxfId="70">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="176">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="174">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="173">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="172">
+    <format dxfId="65">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="171">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="170">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="62">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="168">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="167">
+    <format dxfId="60">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="166">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="165">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="164">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="163">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="162">
+    <format dxfId="55">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="161">
+    <format dxfId="54">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="160">
+    <format dxfId="53">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="159">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="158">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="157">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="156">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="155">
+    <format dxfId="48">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="154">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="153">
+    <format dxfId="46">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="152">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="151">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="150">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="149">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="148">
+    <format dxfId="41">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="147">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="146">
+    <format dxfId="39">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="145">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="144">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="143">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="142">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="141">
+    <format dxfId="34">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="140">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="139">
+    <format dxfId="32">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="138">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="136">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="25">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="130">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="129">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="128">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="127">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="126">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="125">
+    <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="124">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="123">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="122">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="120">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="4">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="108">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -3732,7 +2985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
